--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxOthers.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxOthers.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09532E75-D2ED-4090-88C2-5D89A426A87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,49 +20,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>欄位名稱</t>
@@ -85,11 +84,11 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>其他還款來源檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>會計日期</t>
@@ -105,7 +104,7 @@
   </si>
   <si>
     <t>來源統編</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>來源戶名</t>
@@ -118,7 +117,7 @@
   </si>
   <si>
     <t>銷帳碼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>摘要</t>
@@ -128,262 +127,258 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatxOthers</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Decimald</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>RepayAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AcDate,BatchNo,DetailSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNm</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AcDate,BatchNo,RepayType,CreateEmpNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DetailSeq Desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BatchNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DetailSeq</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>RepayId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>RepayName</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>RvNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>不同櫃員登錄時，抓取總帳檔當日最新之BATX批號+1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>來源會計科目</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>來源</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>RepayCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>RepayAcCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>searchRuleA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>searchRuleB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>searchRuleC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>searchRuleD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Note</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>額度號碼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>searchRuleE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>searchRuleF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>searchRuleG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>searchRuleH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EntryDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>入帳日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= , AND BatchNo = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= , AND BatchNo = , AND CreateEmpNo = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= , AND BatchNo = , AND RepayCode = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND RepayCode = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND CreateEmpNo = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND RepayCode = ,AND CreateEmpNo = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= , AND BatchNo = , AND RepayCode = , AND CreateEmpNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>11+5+2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>RepayType</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>detSeqFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcDate =  ,AND BatchNo =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>05:法院扣薪
@@ -391,7 +386,7 @@
 07:代收款-債權協商
 09:其他
 11:匯款轉帳預先作業</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.RepayType
@@ -403,19 +398,68 @@
 6:契變手續費
 7:法務費
 9:其他</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decimald</t>
+  </si>
+  <si>
+    <t>繳款會計日</t>
+  </si>
+  <si>
+    <t>TitaTlrNo</t>
+  </si>
+  <si>
+    <t>經辦</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+  </si>
+  <si>
+    <t>TitaTxtNo</t>
+  </si>
+  <si>
+    <t>交易序號</t>
+  </si>
+  <si>
+    <t>BatxOthers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findTxSeqFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaEntdy = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaEntdy</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>作帳會計日</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -566,109 +610,137 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -759,23 +831,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -811,23 +866,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1003,11 +1041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1027,7 +1065,7 @@
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
@@ -1055,7 +1093,7 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1081,7 +1119,7 @@
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1101,7 +1139,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="12"/>
@@ -1138,13 +1176,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="22">
         <v>8</v>
@@ -1156,19 +1194,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="22">
         <v>6</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1176,7 +1214,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>29</v>
@@ -1194,10 +1232,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>30</v>
@@ -1206,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="145.80000000000001">
@@ -1214,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>21</v>
@@ -1226,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1234,19 +1272,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="22">
         <v>18</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1254,13 +1292,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>83</v>
-      </c>
       <c r="D15" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="22">
         <v>8</v>
@@ -1272,13 +1310,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="22">
         <v>14</v>
@@ -1290,13 +1328,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="22">
         <v>10</v>
@@ -1308,13 +1346,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="22">
         <v>100</v>
@@ -1326,13 +1364,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="22">
         <v>7</v>
@@ -1344,10 +1382,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>30</v>
@@ -1362,7 +1400,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>26</v>
@@ -1380,13 +1418,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="22">
         <v>12</v>
@@ -1398,7 +1436,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>28</v>
@@ -1412,89 +1450,148 @@
       <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="19">
+      <c r="A24" s="32">
         <v>16</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="37">
+        <v>8</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="32">
+        <v>17</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="37">
+        <v>6</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="32">
+        <v>18</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="37">
+        <v>8</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="32">
+        <v>19</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="D27" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="E27" s="22"/>
+      <c r="F27" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="16" t="s">
+      <c r="G27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="25" t="s">
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="32">
+        <v>20</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="19">
-        <v>17</v>
-      </c>
-      <c r="B25" s="24" t="s">
+      <c r="C28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="D28" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="E28" s="22">
+        <v>6</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="32">
+        <v>21</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="22">
+      <c r="C29" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="32">
+        <v>22</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="22">
         <v>6</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="19">
-        <v>18</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="21" t="s">
+      <c r="F30" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="19">
-        <v>19</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="22">
-        <v>6</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1507,19 +1604,19 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1543,81 +1640,90 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32.4">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="C6" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="30" customFormat="1">
+      <c r="A11" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxOthers.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxOthers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629346ED-7362-4F46-BFB5-BFDD81E37B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -295,10 +296,6 @@
   <si>
     <t>searchRuleD</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
@@ -404,9 +401,6 @@
     <t>Decimald</t>
   </si>
   <si>
-    <t>繳款會計日</t>
-  </si>
-  <si>
     <t>TitaTlrNo</t>
   </si>
   <si>
@@ -438,14 +432,86 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>作帳會計日</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>Note</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料日期</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳會計日</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchCustNoA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchCustNoB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchCustNoC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchCustNoD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchCustNoE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchCustNoF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchCustNoG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchCustNoH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND CustNo = , AND BatchNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND CustNo = , AND BatchNo = , AND RepayCode = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND CustNo = , AND BatchNo = , AND CreateEmpNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND CustNo = , AND BatchNo = , AND RepayCode = , AND CreateEmpNo = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND CustNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND CustNo = , AND RepayCode = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND CustNo = , AND CreateEmpNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND CustNo = , AND RepayCode = ,AND CreateEmpNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="12"/>
@@ -621,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,10 +703,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -652,9 +718,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -667,9 +730,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -700,6 +760,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -711,36 +777,12 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -831,6 +873,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -866,6 +925,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1041,21 +1117,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
@@ -1065,7 +1141,7 @@
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
@@ -1083,72 +1159,72 @@
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="28"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="32.4">
       <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="29"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="27"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="26" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1167,430 +1243,430 @@
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>8</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="19" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="32.4">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>6</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <v>6</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" ht="81">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <v>2</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="145.80000000000001">
+      <c r="A13" s="17">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="20">
+        <v>2</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="145.80000000000001">
-      <c r="A13" s="19">
-        <v>5</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="21" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="17">
+        <v>6</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="20">
+        <v>18</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17">
+        <v>7</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="20">
+        <v>8</v>
+      </c>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="17">
+        <v>8</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="20">
+        <v>14</v>
+      </c>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="20">
+        <v>10</v>
+      </c>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="17">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="20">
+        <v>100</v>
+      </c>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="17">
+        <v>11</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="20">
+        <v>7</v>
+      </c>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="17">
+        <v>12</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="20">
+        <v>3</v>
+      </c>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="17">
+        <v>13</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="20">
+        <v>100</v>
+      </c>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="17">
+        <v>14</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="20">
+        <v>12</v>
+      </c>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="20">
+        <v>100</v>
+      </c>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17">
+        <v>16</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="25">
+        <v>8</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="17">
+        <v>17</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="25">
+        <v>6</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="17">
+        <v>18</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="25">
+        <v>8</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="17">
+        <v>19</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="17">
+        <v>20</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="20">
+        <v>6</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="17">
         <v>21</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="22">
-        <v>2</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="19">
+      <c r="B29" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="17">
+        <v>22</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="20">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="22">
-        <v>18</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="19">
-        <v>7</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="22">
-        <v>8</v>
-      </c>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="19">
-        <v>8</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="22">
-        <v>14</v>
-      </c>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="19">
-        <v>9</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="22">
-        <v>10</v>
-      </c>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="19">
-        <v>10</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="22">
-        <v>100</v>
-      </c>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="19">
-        <v>11</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="22">
-        <v>7</v>
-      </c>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="19">
-        <v>12</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="22">
-        <v>3</v>
-      </c>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="19">
-        <v>13</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="22">
-        <v>100</v>
-      </c>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="19">
-        <v>14</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="22">
-        <v>12</v>
-      </c>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="19">
-        <v>15</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="22">
-        <v>100</v>
-      </c>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="32">
-        <v>16</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="37">
-        <v>8</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="32">
-        <v>17</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="37">
-        <v>6</v>
-      </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="32">
-        <v>18</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="37">
-        <v>8</v>
-      </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="32">
-        <v>19</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="16" t="s">
+      <c r="F30" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="32">
-        <v>20</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="22">
-        <v>6</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="32">
-        <v>21</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="32">
-        <v>22</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="22">
-        <v>6</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="23" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1611,12 +1687,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1642,85 +1718,148 @@
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>83</v>
+      <c r="B2" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>86</v>
+      <c r="B3" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>85</v>
+      <c r="B4" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32.4">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>90</v>
+      <c r="B5" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>87</v>
+        <v>77</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="30" customFormat="1">
-      <c r="A11" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="31"/>
+        <v>79</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="32.4">
+      <c r="A13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="32.4">
+      <c r="A14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="32.4">
+      <c r="A15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="32.4">
+      <c r="A19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxOthers.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxOthers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629346ED-7362-4F46-BFB5-BFDD81E37B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609E9DC9-1C39-4950-B21C-CAC54C4437C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -238,10 +238,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -507,12 +503,15 @@
     <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND CustNo = , AND RepayCode = ,AND CreateEmpNo = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -798,9 +797,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -838,9 +837,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,26 +872,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -925,26 +907,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1120,11 +1085,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -1135,13 +1100,13 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
@@ -1150,7 +1115,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
@@ -1163,7 +1128,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1143,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
@@ -1189,7 +1154,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="32.4">
+    <row r="5" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
@@ -1202,7 +1167,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1178,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>38</v>
       </c>
@@ -1224,7 +1189,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -1264,10 +1229,10 @@
         <v>8</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="32.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -1287,7 +1252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>3</v>
       </c>
@@ -1305,7 +1270,7 @@
       </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:7" ht="81">
+    <row r="12" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>4</v>
       </c>
@@ -1322,15 +1287,15 @@
         <v>2</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="145.80000000000001">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>21</v>
@@ -1342,10 +1307,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>6</v>
       </c>
@@ -1362,18 +1327,18 @@
         <v>18</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>32</v>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>8</v>
       </c>
@@ -1401,7 +1366,7 @@
       </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>9</v>
       </c>
@@ -1419,7 +1384,7 @@
       </c>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>10</v>
       </c>
@@ -1437,7 +1402,7 @@
       </c>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>11</v>
       </c>
@@ -1455,15 +1420,15 @@
       </c>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>30</v>
@@ -1473,7 +1438,7 @@
       </c>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>13</v>
       </c>
@@ -1491,7 +1456,7 @@
       </c>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>14</v>
       </c>
@@ -1509,12 +1474,12 @@
       </c>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>28</v>
@@ -1527,18 +1492,18 @@
       </c>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="25">
         <v>8</v>
@@ -1546,18 +1511,18 @@
       <c r="F24"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="D25" s="22" t="s">
         <v>98</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>99</v>
       </c>
       <c r="E25" s="25">
         <v>6</v>
@@ -1565,18 +1530,18 @@
       <c r="F25"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>101</v>
-      </c>
       <c r="D26" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" s="25">
         <v>8</v>
@@ -1584,7 +1549,7 @@
       <c r="F26"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>19</v>
       </c>
@@ -1595,79 +1560,79 @@
         <v>57</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>20</v>
       </c>
       <c r="B28" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="D28" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E28" s="20">
         <v>6</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" s="23"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>21</v>
       </c>
       <c r="B29" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>65</v>
-      </c>
       <c r="D29" s="22" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>22</v>
       </c>
       <c r="B30" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="D30" s="22" t="s">
         <v>68</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>69</v>
       </c>
       <c r="E30" s="20">
         <v>6</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1690,12 +1655,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -1703,7 +1668,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1714,151 +1679,151 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="32.4">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="B5" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="32.4">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="32.4">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32.4">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="32.4">
-      <c r="A19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
